--- a/data/checklists/sico.xlsx
+++ b/data/checklists/sico.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="10290"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="23955" windowHeight="10230"/>
   </bookViews>
   <sheets>
     <sheet name="sico" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
   <si>
     <t>SeaIceConcentration_2021_20yr_ANN_rcp26</t>
   </si>
@@ -209,6 +209,21 @@
   </si>
   <si>
     <t>OnD</t>
+  </si>
+  <si>
+    <t>this is giving grief trying to delete the tiles.  Will manually delete the service, might cause issues on republ</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>fancystatus</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>wouldn’t restart after remove tile command. Manually started then deleted. Keep an eye incase tile files still exist.  FAILED on republish</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1052,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1066,7 @@
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1066,8 +1082,11 @@
       <c r="E1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1083,8 +1102,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1100,8 +1122,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1112,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1128,8 +1153,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A2+1</f>
         <v>2</v>
@@ -1146,8 +1174,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ref="A7:A61" si="0">A3+1</f>
         <v>2</v>
@@ -1164,8 +1195,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1182,8 +1216,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1200,8 +1237,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1218,8 +1258,14 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1236,8 +1282,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1254,8 +1303,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1272,8 +1324,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1290,8 +1345,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1308,8 +1366,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1326,8 +1387,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1344,8 +1408,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1362,8 +1429,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1380,8 +1450,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1398,8 +1471,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1416,8 +1492,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1434,8 +1513,11 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1452,8 +1534,11 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1470,8 +1555,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1488,8 +1576,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1506,8 +1597,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1524,8 +1618,11 @@
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1542,8 +1639,11 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1560,8 +1660,11 @@
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1578,8 +1681,11 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1596,8 +1702,11 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1614,8 +1723,11 @@
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1632,8 +1744,11 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1648,10 +1763,13 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1668,8 +1786,11 @@
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1684,10 +1805,13 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1704,8 +1828,11 @@
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1722,8 +1849,11 @@
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1740,8 +1870,11 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1758,8 +1891,11 @@
       <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1776,8 +1912,11 @@
       <c r="E41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1794,8 +1933,11 @@
       <c r="E42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1812,8 +1954,11 @@
       <c r="E43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1830,8 +1975,11 @@
       <c r="E44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1848,8 +1996,11 @@
       <c r="E45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1866,8 +2017,11 @@
       <c r="E46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1884,8 +2038,11 @@
       <c r="E47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1902,8 +2059,11 @@
       <c r="E48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1920,8 +2080,11 @@
       <c r="E49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1938,8 +2101,11 @@
       <c r="E50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1956,8 +2122,11 @@
       <c r="E51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1974,8 +2143,11 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1992,8 +2164,11 @@
       <c r="E53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2010,8 +2185,11 @@
       <c r="E54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2022,8 +2200,11 @@
       <c r="C55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2040,8 +2221,11 @@
       <c r="E56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2058,8 +2242,11 @@
       <c r="E57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2076,8 +2263,11 @@
       <c r="E58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2094,8 +2284,11 @@
       <c r="E59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2112,8 +2305,14 @@
       <c r="E60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>66</v>
+      </c>
+      <c r="K60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2130,8 +2329,11 @@
       <c r="E61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C62">
         <f>SUM(C2:C61)/60</f>
         <v>1</v>
@@ -2142,7 +2344,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="1"/>
-        <v>0.93333333333333335</v>
+        <v>0.96666666666666667</v>
       </c>
     </row>
   </sheetData>
